--- a/output/13-specific-quality-factor.xlsx
+++ b/output/13-specific-quality-factor.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="descriptives" sheetId="1" r:id="rId1"/>
     <sheet name="coefficients" sheetId="2" r:id="rId2"/>
+    <sheet name="nr_studies" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -407,25 +408,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D2">
-        <v>0.009514392948594777</v>
+        <v>0.01121201981415426</v>
       </c>
       <c r="E2">
-        <v>0.0219686412651559</v>
+        <v>0.02163914556667072</v>
       </c>
       <c r="F2">
-        <v>94.18471215507266</v>
+        <v>94.40250460382236</v>
       </c>
       <c r="G2">
-        <v>65.72143396182079</v>
+        <v>62.18316809463259</v>
       </c>
       <c r="H2">
-        <v>28.46327819325186</v>
+        <v>32.21933650918977</v>
       </c>
     </row>
     <row r="3">
@@ -435,25 +436,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D3">
-        <v>1.386835896304686e-09</v>
+        <v>1.926750934309615e-09</v>
       </c>
       <c r="E3">
-        <v>0.02158826193356254</v>
+        <v>0.01913671616879449</v>
       </c>
       <c r="F3">
-        <v>87.44908859528263</v>
+        <v>85.4259820164463</v>
       </c>
       <c r="G3">
-        <v>87.44908297752944</v>
+        <v>85.4259734154631</v>
       </c>
       <c r="H3">
-        <v>5.617753191312674e-06</v>
+        <v>8.600983190676671e-06</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -533,22 +534,22 @@
         </is>
       </c>
       <c r="D2">
-        <v>5.479930826407552e+27</v>
+        <v>1.498823360541063e+27</v>
       </c>
       <c r="E2">
-        <v>0.7821911315690809</v>
+        <v>0.7655447827216934</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2">
-        <v>10.77354384884236</v>
+        <v>9.795620565947544</v>
       </c>
       <c r="H2">
-        <v>5.020500147369746e-147</v>
+        <v>3.750866962371731e-131</v>
       </c>
       <c r="I2">
-        <v>1.506150044210924e-145</v>
+        <v>1.237786097582671e-129</v>
       </c>
     </row>
     <row r="3">
@@ -559,7 +560,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:</t>
+          <t>specific_factorOthers' controlled motivation:</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,22 +569,22 @@
         </is>
       </c>
       <c r="D3">
-        <v>124397.2649997869</v>
+        <v>12.29598242695234</v>
       </c>
       <c r="E3">
-        <v>0.3302280214706669</v>
+        <v>0.7410456971334866</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>1.479136327242769</v>
+        <v>2.861685204418029</v>
       </c>
       <c r="H3">
-        <v>0.0001422159506841988</v>
+        <v>0.03934990663347204</v>
       </c>
       <c r="I3">
-        <v>0.001422159506841988</v>
+        <v>0.2164244864840962</v>
       </c>
     </row>
     <row r="4">
@@ -594,7 +595,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>specific_factorOthers' controlled motivation:</t>
+          <t>specific_factorAutonomous causality orientation:</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -603,22 +604,22 @@
         </is>
       </c>
       <c r="D4">
-        <v>11.95226375801045</v>
+        <v>1.438553991966951</v>
       </c>
       <c r="E4">
-        <v>0.7208066142931565</v>
+        <v>0.8214858872293622</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>2.581746743277122</v>
+        <v>4.601798000614332</v>
       </c>
       <c r="H4">
-        <v>0.04952090762499162</v>
+        <v>0.3271268479324197</v>
       </c>
       <c r="I4">
-        <v>0.2476045381249581</v>
+        <v>0.6245637594007114</v>
       </c>
     </row>
     <row r="5">
@@ -629,7 +630,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation:</t>
+          <t>specific_factorControlled causality orientation:</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -638,22 +639,22 @@
         </is>
       </c>
       <c r="D5">
-        <v>1.622197564398166</v>
+        <v>0.3046354578459665</v>
       </c>
       <c r="E5">
-        <v>0.8152215913303751</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>4.411887715668948</v>
+        <v>3.87382838680706</v>
       </c>
       <c r="H5">
-        <v>0.2964226182264373</v>
+        <v>0.6112790933565191</v>
       </c>
       <c r="I5">
-        <v>0.6260133532765096</v>
+        <v>0.7471188918801901</v>
       </c>
     </row>
     <row r="6">
@@ -664,7 +665,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:</t>
+          <t>specific_factorControlled motivation:</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -673,22 +674,22 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.548079835001605</v>
+        <v>1.154007821793697</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.7000565812732933</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>3.49916567929378</v>
+        <v>4.66792426548388</v>
       </c>
       <c r="H6">
-        <v>0.5056737707410092</v>
+        <v>0.4181672595624074</v>
       </c>
       <c r="I6">
-        <v>0.6260133532765096</v>
+        <v>0.6245637594007114</v>
       </c>
     </row>
     <row r="7">
@@ -699,7 +700,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:</t>
+          <t>specific_factorExternal pressure in terms of constraints:</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -708,22 +709,22 @@
         </is>
       </c>
       <c r="D7">
-        <v>1.029653403738845</v>
+        <v>1.215364259592051</v>
       </c>
       <c r="E7">
-        <v>0.719484452298818</v>
+        <v>0.663658394976621</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>5.129729586791</v>
+        <v>1.973167711233614</v>
       </c>
       <c r="H7">
-        <v>0.4527493493313822</v>
+        <v>0.4529025556598744</v>
       </c>
       <c r="I7">
-        <v>0.6260133532765096</v>
+        <v>0.6245637594007114</v>
       </c>
     </row>
     <row r="8">
@@ -734,7 +735,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:</t>
+          <t>specific_factorIll-being:</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -743,22 +744,22 @@
         </is>
       </c>
       <c r="D8">
-        <v>1.193502039523631</v>
+        <v>72.39797904767069</v>
       </c>
       <c r="E8">
-        <v>0.6574876510044213</v>
+        <v>0.5716923895643496</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>1.919602761571988</v>
+        <v>2.669541122479035</v>
       </c>
       <c r="H8">
-        <v>0.4604503365755592</v>
+        <v>0.004517931530519631</v>
       </c>
       <c r="I8">
-        <v>0.6260133532765096</v>
+        <v>0.04969724683571594</v>
       </c>
     </row>
     <row r="9">
@@ -778,22 +779,22 @@
         </is>
       </c>
       <c r="D9">
-        <v>1.442211940883342</v>
+        <v>4.880398540224151</v>
       </c>
       <c r="E9">
-        <v>0.5179991281381894</v>
+        <v>0.5301049402522534</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>1.074685043903197</v>
+        <v>1.128134738289926</v>
       </c>
       <c r="H9">
-        <v>0.4962427791624339</v>
+        <v>0.2783591862047585</v>
       </c>
       <c r="I9">
-        <v>0.6260133532765096</v>
+        <v>0.6245637594007114</v>
       </c>
     </row>
     <row r="10">
@@ -813,22 +814,22 @@
         </is>
       </c>
       <c r="D10">
-        <v>1.743304455388893</v>
+        <v>1.75978984408193</v>
       </c>
       <c r="E10">
-        <v>0.4863698880262406</v>
+        <v>0.5059109446446846</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10">
-        <v>1.893852703289673</v>
+        <v>2.047853273256043</v>
       </c>
       <c r="H10">
-        <v>0.3928325143139396</v>
+        <v>0.3788937062694577</v>
       </c>
       <c r="I10">
-        <v>0.6260133532765096</v>
+        <v>0.6245637594007114</v>
       </c>
     </row>
     <row r="11">
@@ -848,7 +849,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>67.58794170390334</v>
+        <v>60.62467896371808</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -857,13 +858,13 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.792011778658954</v>
+        <v>1.98520218838553</v>
       </c>
       <c r="H11">
-        <v>0.0198174970998295</v>
+        <v>0.01644135792489077</v>
       </c>
       <c r="I11">
-        <v>0.1466747100867407</v>
+        <v>0.1356412028803489</v>
       </c>
     </row>
     <row r="12">
@@ -883,22 +884,22 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.3559844242279788</v>
+        <v>0.2438938439042631</v>
       </c>
       <c r="E12">
-        <v>0.6604797995326829</v>
+        <v>0.6862929315543742</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12">
-        <v>1.945332850957309</v>
+        <v>2.187687178854014</v>
       </c>
       <c r="H12">
-        <v>0.7383381426122561</v>
+        <v>0.8023815746216109</v>
       </c>
       <c r="I12">
-        <v>0.7637980785644028</v>
+        <v>0.9110679281984798</v>
       </c>
     </row>
     <row r="13">
@@ -918,22 +919,22 @@
         </is>
       </c>
       <c r="D13">
-        <v>7.837042652325402</v>
+        <v>2.041916424731003</v>
       </c>
       <c r="E13">
-        <v>0.6475189418028872</v>
+        <v>0.5630062489731221</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13">
-        <v>1.837031882265812</v>
+        <v>1.288362242366468</v>
       </c>
       <c r="H13">
-        <v>0.1260642076146621</v>
+        <v>0.3985973484355178</v>
       </c>
       <c r="I13">
-        <v>0.3781926228439864</v>
+        <v>0.6245637594007114</v>
       </c>
     </row>
     <row r="14">
@@ -953,22 +954,22 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.6893084312193588</v>
+        <v>0.1285699046899958</v>
       </c>
       <c r="E14">
-        <v>0.3971987168085189</v>
+        <v>0.05367792488812805</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
       <c r="G14">
-        <v>1.317842970424958</v>
+        <v>0.113445361362372</v>
       </c>
       <c r="H14">
-        <v>0.6645493560151061</v>
+        <v>0.9449354190699563</v>
       </c>
       <c r="I14">
-        <v>0.7120171671590423</v>
+        <v>0.9449354190699563</v>
       </c>
     </row>
     <row r="15">
@@ -988,22 +989,22 @@
         </is>
       </c>
       <c r="D15">
-        <v>3.60206161870552e+32</v>
+        <v>2.202155123386043e+31</v>
       </c>
       <c r="E15">
-        <v>0.8002324861988586</v>
+        <v>0.7984937372674933</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15">
-        <v>8.011637838126674</v>
+        <v>7.925249830348639</v>
       </c>
       <c r="H15">
-        <v>4.8372639955424e-129</v>
+        <v>7.265048153165771e-123</v>
       </c>
       <c r="I15">
-        <v>7.255895993313599e-128</v>
+        <v>1.198732945272352e-121</v>
       </c>
     </row>
     <row r="16">
@@ -1023,22 +1024,22 @@
         </is>
       </c>
       <c r="D16">
-        <v>4.288961921640995</v>
+        <v>4.169798959018908</v>
       </c>
       <c r="E16">
-        <v>0.3887703262323912</v>
+        <v>0.3959818358054585</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16">
-        <v>0.6360462243857008</v>
+        <v>0.6555793505539698</v>
       </c>
       <c r="H16">
-        <v>0.4273547014821159</v>
+        <v>0.4238157742609744</v>
       </c>
       <c r="I16">
-        <v>0.6260133532765096</v>
+        <v>0.6245637594007114</v>
       </c>
     </row>
     <row r="17">
@@ -1058,22 +1059,22 @@
         </is>
       </c>
       <c r="D17">
-        <v>3.74515867255907</v>
+        <v>2.395479912849033</v>
       </c>
       <c r="E17">
-        <v>0.4578586789019097</v>
+        <v>0.4170333569233191</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
       <c r="G17">
-        <v>1.689075010827551</v>
+        <v>1.430728024925653</v>
       </c>
       <c r="H17">
-        <v>0.2491365145991687</v>
+        <v>0.3671240623581098</v>
       </c>
       <c r="I17">
-        <v>0.5982018235911546</v>
+        <v>0.6245637594007114</v>
       </c>
     </row>
     <row r="18">
@@ -1093,7 +1094,7 @@
         </is>
       </c>
       <c r="D18">
-        <v>12.70351960206062</v>
+        <v>12.02806993693774</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1102,13 +1103,13 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.906316459178253</v>
+        <v>4.281293289372887</v>
       </c>
       <c r="H18">
-        <v>0.02444578501445678</v>
+        <v>0.02297439822457596</v>
       </c>
       <c r="I18">
-        <v>0.1466747100867407</v>
+        <v>0.1516310282822013</v>
       </c>
     </row>
     <row r="19">
@@ -1119,7 +1120,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:</t>
+          <t>specific_factorautonomous motivation:</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1128,22 +1129,22 @@
         </is>
       </c>
       <c r="D19">
-        <v>3.350274724516738</v>
+        <v>9.66490995096971</v>
       </c>
       <c r="E19">
-        <v>0.6635007010268779</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.971774393146283</v>
+        <v>1.832323911235229</v>
       </c>
       <c r="H19">
-        <v>0.232166842535597</v>
+        <v>0.100092590457428</v>
       </c>
       <c r="I19">
-        <v>0.5982018235911546</v>
+        <v>0.4128819356368907</v>
       </c>
     </row>
     <row r="20">
@@ -1154,7 +1155,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>specific_factorEntity beliefs:</t>
+          <t>specific_factorcontrolled motivation:</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1163,22 +1164,22 @@
         </is>
       </c>
       <c r="D20">
-        <v>1.99583867863329</v>
+        <v>0.220727479356288</v>
       </c>
       <c r="E20">
-        <v>0.643299778860416</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1.803474572584242</v>
+        <v>3.470392186833807</v>
       </c>
       <c r="H20">
-        <v>0.3490277454544044</v>
+        <v>0.6664603268476211</v>
       </c>
       <c r="I20">
-        <v>0.6260133532765096</v>
+        <v>0.7854710994989821</v>
       </c>
     </row>
     <row r="21">
@@ -1189,7 +1190,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:</t>
+          <t>specific_factorentity beliefs:</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1198,22 +1199,22 @@
         </is>
       </c>
       <c r="D21">
-        <v>0.6774120448673174</v>
+        <v>1.962903823118831</v>
       </c>
       <c r="E21">
-        <v>0.6445398195450573</v>
+        <v>0.6557969767285547</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="G21">
-        <v>1.813254634373196</v>
+        <v>1.905262105183139</v>
       </c>
       <c r="H21">
-        <v>0.6029627774946846</v>
+        <v>0.3445228412944538</v>
       </c>
       <c r="I21">
-        <v>0.6758059200769716</v>
+        <v>0.6245637594007114</v>
       </c>
     </row>
     <row r="22">
@@ -1224,7 +1225,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:</t>
+          <t>specific_factorExternal pressures:</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1233,22 +1234,22 @@
         </is>
       </c>
       <c r="D22">
-        <v>1.585201032856211</v>
+        <v>1.300123617690266</v>
       </c>
       <c r="E22">
-        <v>0.7498497075470882</v>
+        <v>0.6298993698708177</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22">
-        <v>2.997596765505441</v>
+        <v>1.701967839533139</v>
       </c>
       <c r="H22">
-        <v>0.3390938749308166</v>
+        <v>0.4542281886550628</v>
       </c>
       <c r="I22">
-        <v>0.6260133532765096</v>
+        <v>0.6245637594007114</v>
       </c>
     </row>
     <row r="23">
@@ -1259,7 +1260,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about knowledge and learning:</t>
+          <t>specific_factorill-being:</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1267,13 +1268,23 @@
           <t>HTZ</t>
         </is>
       </c>
+      <c r="D23">
+        <v>6.041912947612166</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+      <c r="G23">
+        <v>1.056839938082264</v>
+      </c>
+      <c r="H23">
+        <v>0.2350583579774402</v>
+      </c>
+      <c r="I23">
+        <v>0.6245637594007114</v>
       </c>
     </row>
     <row r="24">
@@ -1284,7 +1295,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:</t>
+          <t>specific_factorNeed frustration:</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1293,22 +1304,22 @@
         </is>
       </c>
       <c r="D24">
-        <v>1.607418461658219</v>
+        <v>1.521286725966728</v>
       </c>
       <c r="E24">
-        <v>0.5502738415655651</v>
+        <v>0.7706912048539999</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24">
-        <v>1.223575349677573</v>
+        <v>3.360931726858988</v>
       </c>
       <c r="H24">
-        <v>0.4546168209453448</v>
+        <v>0.3384854556794075</v>
       </c>
       <c r="I24">
-        <v>0.6260133532765096</v>
+        <v>0.6245637594007114</v>
       </c>
     </row>
     <row r="25">
@@ -1319,7 +1330,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:</t>
+          <t>specific_factorOthers' abilities:</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1328,7 +1339,7 @@
         </is>
       </c>
       <c r="D25">
-        <v>0.328692894761244</v>
+        <v>4.221994416717738</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1337,13 +1348,13 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.872395475146778</v>
+        <v>2.022678931032907</v>
       </c>
       <c r="H25">
-        <v>0.6082253280692744</v>
+        <v>0.1748214714008147</v>
       </c>
       <c r="I25">
-        <v>0.6758059200769716</v>
+        <v>0.5244644142024441</v>
       </c>
     </row>
     <row r="26">
@@ -1354,7 +1365,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:</t>
+          <t>specific_factorothers' negative behaviours:</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1363,22 +1374,22 @@
         </is>
       </c>
       <c r="D26">
-        <v>5.283527989964685</v>
+        <v>0.3176321676509883</v>
       </c>
       <c r="E26">
-        <v>0.7215720787006739</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>2.591593814777442</v>
+        <v>3.390814783105863</v>
       </c>
       <c r="H26">
-        <v>0.1217946401450724</v>
+        <v>0.6081831976718748</v>
       </c>
       <c r="I26">
-        <v>0.3781926228439864</v>
+        <v>0.7471188918801901</v>
       </c>
     </row>
     <row r="27">
@@ -1389,7 +1400,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions:</t>
+          <t>specific_factorOthers' positive behaviours:</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1398,7 +1409,7 @@
         </is>
       </c>
       <c r="D27">
-        <v>1.822174776255078</v>
+        <v>7.289078316131716</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1407,13 +1418,13 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.430901752841317</v>
+        <v>3.498212920461838</v>
       </c>
       <c r="H27">
-        <v>0.2592207902228337</v>
+        <v>0.06248201274991709</v>
       </c>
       <c r="I27">
-        <v>0.5982018235911546</v>
+        <v>0.294558060106752</v>
       </c>
     </row>
     <row r="28">
@@ -1424,7 +1435,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:</t>
+          <t>specific_factorothers' positive emotions:</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1433,7 +1444,7 @@
         </is>
       </c>
       <c r="D28">
-        <v>0.02253247579136091</v>
+        <v>4.168303676110396</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1442,13 +1453,13 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.636322067893144</v>
+        <v>3.633244734621245</v>
       </c>
       <c r="H28">
-        <v>0.8970821197226689</v>
+        <v>0.1177875622594737</v>
       </c>
       <c r="I28">
-        <v>0.8970821197226689</v>
+        <v>0.4318877282847368</v>
       </c>
     </row>
     <row r="29">
@@ -1459,7 +1470,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning:</t>
+          <t>specific_factorOthers' positive emotions:</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1468,7 +1479,7 @@
         </is>
       </c>
       <c r="D29">
-        <v>32.19823316788633</v>
+        <v>0.4590348303785368</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1477,13 +1488,13 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.082183407867791</v>
+        <v>2.824894436786414</v>
       </c>
       <c r="H29">
-        <v>0.09786023189352142</v>
+        <v>0.5493964910894841</v>
       </c>
       <c r="I29">
-        <v>0.3781926228439864</v>
+        <v>0.725203368238119</v>
       </c>
     </row>
     <row r="30">
@@ -1494,7 +1505,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>specific_factorIncremental beliefs:</t>
+          <t>specific_factorPersonal responsibility for others' motivation:</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1503,7 +1514,7 @@
         </is>
       </c>
       <c r="D30">
-        <v>0.6561509779280565</v>
+        <v>0.01791280930989531</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1512,13 +1523,13 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.581575491238601</v>
+        <v>1.973803970840154</v>
       </c>
       <c r="H30">
-        <v>0.5216777943970914</v>
+        <v>0.9059264689234667</v>
       </c>
       <c r="I30">
-        <v>0.6260133532765096</v>
+        <v>0.9449354190699563</v>
       </c>
     </row>
     <row r="31">
@@ -1529,7 +1540,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:</t>
+          <t>specific_factorPositive beliefs about knowledge and learning:</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1538,7 +1549,7 @@
         </is>
       </c>
       <c r="D31">
-        <v>6.470280314398418</v>
+        <v>12.7130558877729</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1547,13 +1558,13 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.219114298825447</v>
+        <v>1.145155729670103</v>
       </c>
       <c r="H31">
-        <v>0.1137657157436595</v>
+        <v>0.1486060989263921</v>
       </c>
       <c r="I31">
-        <v>0.3781926228439864</v>
+        <v>0.490400126457094</v>
       </c>
     </row>
     <row r="32">
@@ -1564,7 +1575,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others':</t>
+          <t>specific_factorself-efficacy:</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1573,7 +1584,7 @@
         </is>
       </c>
       <c r="D32">
-        <v>0.9090682017991595</v>
+        <v>1.787877911636986</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1582,24 +1593,24 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.718968352831042</v>
+        <v>2.456639474470342</v>
       </c>
       <c r="H32">
-        <v>0.3866060421636281</v>
+        <v>0.29150920282382</v>
       </c>
       <c r="I32">
-        <v>0.6260133532765096</v>
+        <v>0.6245637594007114</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation:</t>
+          <t>specific_factorEmotional intelligence:</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1608,7 +1619,7 @@
         </is>
       </c>
       <c r="D33">
-        <v>4.775609442897989</v>
+        <v>0.007645343709991219</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1617,24 +1628,24 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.849315860727335</v>
+        <v>2.451940727653588</v>
       </c>
       <c r="H33">
-        <v>0.1707256030441013</v>
+        <v>0.9369575096863141</v>
       </c>
       <c r="I33">
-        <v>0.3699054732622195</v>
+        <v>0.9449354190699563</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:</t>
+          <t>specific_factorothers abilities:</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1642,34 +1653,24 @@
           <t>HTZ</t>
         </is>
       </c>
-      <c r="D34">
-        <v>4.849941353277822</v>
-      </c>
-      <c r="E34">
-        <v>0.5274010144470964</v>
-      </c>
       <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>2.231917674685987</v>
-      </c>
-      <c r="H34">
-        <v>0.1570868527504111</v>
-      </c>
-      <c r="I34">
-        <v>0.3699054732622195</v>
+        <v>1</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:</t>
+          <t>specific_factorpersonal responsibility for others:</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1678,7 +1679,7 @@
         </is>
       </c>
       <c r="D35">
-        <v>100.7296934398145</v>
+        <v>0.06302880698259031</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1687,13 +1688,13 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.84931586072734</v>
+        <v>1.740430263401004</v>
       </c>
       <c r="H35">
-        <v>0.01262487529347459</v>
+        <v>0.8282435710895271</v>
       </c>
       <c r="I35">
-        <v>0.1313785912646171</v>
+        <v>0.9110679281984798</v>
       </c>
     </row>
     <row r="36">
@@ -1704,7 +1705,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:</t>
+          <t>specific_factorAutonomous causality orientation:</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1713,22 +1714,22 @@
         </is>
       </c>
       <c r="D36">
-        <v>2.769445242017321</v>
+        <v>2.826612480344658</v>
       </c>
       <c r="E36">
-        <v>0.443173487294914</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>1.59178299589924</v>
+        <v>1.606563786989779</v>
       </c>
       <c r="H36">
-        <v>0.3175313927889735</v>
+        <v>0.2639915124477477</v>
       </c>
       <c r="I36">
-        <v>0.4932470655390919</v>
+        <v>0.5091264882920848</v>
       </c>
     </row>
     <row r="37">
@@ -1739,7 +1740,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:</t>
+          <t>specific_factorAutonomous motivation:</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1748,22 +1749,22 @@
         </is>
       </c>
       <c r="D37">
-        <v>1.063560057046747</v>
+        <v>7.958964377186649</v>
       </c>
       <c r="E37">
-        <v>0.6149364019450609</v>
+        <v>0.4332031106229974</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37">
-        <v>1.596973603974179</v>
+        <v>1.528600875347621</v>
       </c>
       <c r="H37">
-        <v>0.5086020970232492</v>
+        <v>0.1609409869006601</v>
       </c>
       <c r="I37">
-        <v>0.6296978344097371</v>
+        <v>0.4345406646317823</v>
       </c>
     </row>
     <row r="38">
@@ -1774,7 +1775,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:</t>
+          <t>specific_factorControlled causality orientation:</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1783,22 +1784,22 @@
         </is>
       </c>
       <c r="D38">
-        <v>1.03727010339965</v>
+        <v>92.18554688924299</v>
       </c>
       <c r="E38">
-        <v>0.35574285385895</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>0.5521752548493513</v>
+        <v>1.606563786989778</v>
       </c>
       <c r="H38">
-        <v>0.6501235316356918</v>
+        <v>0.02077429952992112</v>
       </c>
       <c r="I38">
-        <v>0.6777573292787732</v>
+        <v>0.2804530436539351</v>
       </c>
     </row>
     <row r="39">
@@ -1809,7 +1810,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:</t>
+          <t>specific_factorControlled motivation:</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1818,22 +1819,22 @@
         </is>
       </c>
       <c r="D39">
-        <v>2.116467436555103</v>
+        <v>2.737804661901658</v>
       </c>
       <c r="E39">
-        <v>0.4281256858218669</v>
+        <v>0.4268836144010363</v>
       </c>
       <c r="F39">
         <v>3</v>
       </c>
       <c r="G39">
-        <v>1.49727195367096</v>
+        <v>1.48969258296428</v>
       </c>
       <c r="H39">
-        <v>0.3853664563740055</v>
+        <v>0.3323494469327112</v>
       </c>
       <c r="I39">
-        <v>0.527343571880218</v>
+        <v>0.5608396916989501</v>
       </c>
     </row>
     <row r="40">
@@ -1844,7 +1845,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:</t>
+          <t>specific_factorExternal pressure in terms of constraints:</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1853,22 +1854,22 @@
         </is>
       </c>
       <c r="D40">
-        <v>0.5389271563766862</v>
+        <v>0.8699338678148218</v>
       </c>
       <c r="E40">
-        <v>0.7134632946360265</v>
+        <v>0.6168078153485693</v>
       </c>
       <c r="F40">
         <v>2</v>
       </c>
       <c r="G40">
-        <v>2.489954275595335</v>
+        <v>1.609656564132815</v>
       </c>
       <c r="H40">
-        <v>0.6390309664768614</v>
+        <v>0.5544513859439353</v>
       </c>
       <c r="I40">
-        <v>0.6777573292787732</v>
+        <v>0.7485093710243127</v>
       </c>
     </row>
     <row r="41">
@@ -1879,7 +1880,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>specific_factorOthers' controlled motivation:</t>
+          <t>specific_factorMastery goals:</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1888,22 +1889,22 @@
         </is>
       </c>
       <c r="D41">
-        <v>1.482401427946525</v>
+        <v>1.402797497727567</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0.3504087464971939</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41">
-        <v>2.134806493960617</v>
+        <v>0.5394295945453031</v>
       </c>
       <c r="H41">
-        <v>0.3408293580200688</v>
+        <v>0.6113087129303698</v>
       </c>
       <c r="I41">
-        <v>0.4932470655390919</v>
+        <v>0.7763051659235531</v>
       </c>
     </row>
     <row r="42">
@@ -1914,7 +1915,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:</t>
+          <t>specific_factorNeed satisfaction:</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1923,22 +1924,22 @@
         </is>
       </c>
       <c r="D42">
-        <v>29.40872867115083</v>
+        <v>1.350099622133749</v>
       </c>
       <c r="E42">
-        <v>0.4061468268596932</v>
+        <v>0.4211121833374717</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42">
-        <v>0.6839179198319025</v>
+        <v>1.45490083299841</v>
       </c>
       <c r="H42">
-        <v>0.2171514457462853</v>
+        <v>0.4939184684864246</v>
       </c>
       <c r="I42">
-        <v>0.4343028914925706</v>
+        <v>0.701884139428077</v>
       </c>
     </row>
     <row r="43">
@@ -1949,7 +1950,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>specific_factorAmotivation:</t>
+          <t>specific_factorOthers' autonomous motivation:</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1958,22 +1959,22 @@
         </is>
       </c>
       <c r="D43">
-        <v>1.612235306931158</v>
+        <v>48.45109373473091</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0.4887040111114597</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>4.174199767900515</v>
+        <v>0.9558142870899669</v>
       </c>
       <c r="H43">
-        <v>0.2703494973843256</v>
+        <v>0.109471268778975</v>
       </c>
       <c r="I43">
-        <v>0.4932470655390919</v>
+        <v>0.3694655321290408</v>
       </c>
     </row>
     <row r="44">
@@ -1984,7 +1985,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:</t>
+          <t>specific_factorOthers' controlled motivation:</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1993,22 +1994,22 @@
         </is>
       </c>
       <c r="D44">
-        <v>6.522245668680798</v>
+        <v>1.107443769650151</v>
       </c>
       <c r="E44">
-        <v>0.7339923673062738</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>2.759290625887312</v>
+        <v>2.259751954267577</v>
       </c>
       <c r="H44">
-        <v>0.09000758188562058</v>
+        <v>0.3920006378079987</v>
       </c>
       <c r="I44">
-        <v>0.2925246411282669</v>
+        <v>0.6010575130889599</v>
       </c>
     </row>
     <row r="45">
@@ -2019,7 +2020,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>specific_factorEntity beliefs:</t>
+          <t>specific_factorPerformance goals:</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2028,22 +2029,22 @@
         </is>
       </c>
       <c r="D45">
-        <v>43.03558387186694</v>
+        <v>8.681929847284122</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0.3403140558276628</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>2.655608166544663</v>
+        <v>0.5158728313586121</v>
       </c>
       <c r="H45">
-        <v>0.01038620079209003</v>
+        <v>0.4007050087259733</v>
       </c>
       <c r="I45">
-        <v>0.1313785912646171</v>
+        <v>0.6010575130889599</v>
       </c>
     </row>
     <row r="46">
@@ -2054,7 +2055,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:</t>
+          <t>specific_factorAmotivation:</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2063,22 +2064,22 @@
         </is>
       </c>
       <c r="D46">
-        <v>175.5381272532186</v>
+        <v>1.790993226236052</v>
       </c>
       <c r="E46">
-        <v>0.5707390946959999</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>1.329585544930549</v>
+        <v>4.078163293280327</v>
       </c>
       <c r="H46">
-        <v>0.02449006005107874</v>
+        <v>0.2505488642388905</v>
       </c>
       <c r="I46">
-        <v>0.132608978589355</v>
+        <v>0.5091264882920848</v>
       </c>
     </row>
     <row r="47">
@@ -2089,7 +2090,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:</t>
+          <t>specific_factorautonomous motivation:</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2098,22 +2099,22 @@
         </is>
       </c>
       <c r="D47">
-        <v>0.60392012001331</v>
+        <v>5.002223435630119</v>
       </c>
       <c r="E47">
-        <v>0.7379457948894119</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>2.816004400990228</v>
+        <v>1.040545444991948</v>
       </c>
       <c r="H47">
-        <v>0.6049905215625512</v>
+        <v>0.2598695524434761</v>
       </c>
       <c r="I47">
-        <v>0.6777573292787732</v>
+        <v>0.5091264882920848</v>
       </c>
     </row>
     <row r="48">
@@ -2124,7 +2125,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:</t>
+          <t>specific_factorentity beliefs:</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2133,22 +2134,22 @@
         </is>
       </c>
       <c r="D48">
-        <v>14.8363417569698</v>
+        <v>32.52087596493006</v>
       </c>
       <c r="E48">
-        <v>0.7544871427494791</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>3.073106440122612</v>
+        <v>2.741381479701532</v>
       </c>
       <c r="H48">
-        <v>0.02636767982429265</v>
+        <v>0.01360268653055748</v>
       </c>
       <c r="I48">
-        <v>0.132608978589355</v>
+        <v>0.2804530436539351</v>
       </c>
     </row>
     <row r="49">
@@ -2159,7 +2160,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:</t>
+          <t>specific_factorExternal pressures:</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2168,7 +2169,7 @@
         </is>
       </c>
       <c r="D49">
-        <v>21.85974180631709</v>
+        <v>0.04246845105915066</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2177,13 +2178,13 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>1.045457108228126</v>
+        <v>1.153471791533616</v>
       </c>
       <c r="H49">
-        <v>0.1260599134722631</v>
+        <v>0.867053575841323</v>
       </c>
       <c r="I49">
-        <v>0.3277557750278839</v>
+        <v>0.867053575841323</v>
       </c>
     </row>
     <row r="50">
@@ -2194,7 +2195,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:</t>
+          <t>specific_factorIll-being:</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2203,22 +2204,22 @@
         </is>
       </c>
       <c r="D50">
-        <v>3.232612500569986</v>
+        <v>0.5572145435955316</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0.70672730953888</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50">
-        <v>1.184278573317002</v>
+        <v>2.409795840273006</v>
       </c>
       <c r="H50">
-        <v>0.2925618092775299</v>
+        <v>0.632544950011784</v>
       </c>
       <c r="I50">
-        <v>0.4932470655390919</v>
+        <v>0.7763051659235531</v>
       </c>
     </row>
     <row r="51">
@@ -2229,7 +2230,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:</t>
+          <t>specific_factorNeed frustration:</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2238,22 +2239,22 @@
         </is>
       </c>
       <c r="D51">
-        <v>0.07735465829664066</v>
+        <v>8.559413333223899</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0.7460216029297936</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51">
-        <v>1.240036887130718</v>
+        <v>2.937342748578625</v>
       </c>
       <c r="H51">
-        <v>0.820091287557883</v>
+        <v>0.05952470052141486</v>
       </c>
       <c r="I51">
-        <v>0.820091287557883</v>
+        <v>0.3182929342397125</v>
       </c>
     </row>
     <row r="52">
@@ -2264,7 +2265,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:</t>
+          <t>specific_factorOthers' abilities:</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2273,7 +2274,7 @@
         </is>
       </c>
       <c r="D52">
-        <v>2.199429821207028</v>
+        <v>117.6830941165788</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2282,13 +2283,13 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>1.245336641829198</v>
+        <v>1.180221803406611</v>
       </c>
       <c r="H52">
-        <v>0.3414787376809097</v>
+        <v>0.0397922556712957</v>
       </c>
       <c r="I52">
-        <v>0.4932470655390919</v>
+        <v>0.3182929342397125</v>
       </c>
     </row>
     <row r="53">
@@ -2299,7 +2300,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:</t>
+          <t>specific_factorothers' autonomous motivation:</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2308,7 +2309,7 @@
         </is>
       </c>
       <c r="D53">
-        <v>20.76854411212265</v>
+        <v>11.38622602861997</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2317,13 +2318,13 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>1.081675906482041</v>
+        <v>1.63316590677731</v>
       </c>
       <c r="H53">
-        <v>0.12333928787476</v>
+        <v>0.1020301103953869</v>
       </c>
       <c r="I53">
-        <v>0.3277557750278839</v>
+        <v>0.3694655321290408</v>
       </c>
     </row>
     <row r="54">
@@ -2334,7 +2335,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>specific_factorWell-being:</t>
+          <t>specific_factorothers' negative behaviours:</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2343,22 +2344,22 @@
         </is>
       </c>
       <c r="D54">
-        <v>1.496957786837529</v>
+        <v>35.66133630712098</v>
       </c>
       <c r="E54">
-        <v>0.5737855735299444</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>1.346236865518809</v>
+        <v>1.261172964229582</v>
       </c>
       <c r="H54">
-        <v>0.4547761621163782</v>
+        <v>0.07073176316438055</v>
       </c>
       <c r="I54">
-        <v>0.5912090107512917</v>
+        <v>0.3182929342397125</v>
       </c>
     </row>
     <row r="55">
@@ -2369,7 +2370,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:</t>
+          <t>specific_factorPersonal responsibility for others' motivation:</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2378,7 +2379,7 @@
         </is>
       </c>
       <c r="D55">
-        <v>11.69621834090322</v>
+        <v>0.09154028008051078</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2387,13 +2388,13 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>3.673497022096325</v>
+        <v>1.209294542090686</v>
       </c>
       <c r="H55">
-        <v>0.03060207198215884</v>
+        <v>0.8059492491390345</v>
       </c>
       <c r="I55">
-        <v>0.132608978589355</v>
+        <v>0.867053575841323</v>
       </c>
     </row>
     <row r="56">
@@ -2404,7 +2405,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:</t>
+          <t>specific_factorSelf-efficacy:</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2413,7 +2414,7 @@
         </is>
       </c>
       <c r="D56">
-        <v>17.51802069065712</v>
+        <v>3.070582855713386</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2422,13 +2423,13 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>2.297505091578018</v>
+        <v>1.787838904242759</v>
       </c>
       <c r="H56">
-        <v>0.04115862190230401</v>
+        <v>0.2364280769170139</v>
       </c>
       <c r="I56">
-        <v>0.1528748813514149</v>
+        <v>0.5091264882920848</v>
       </c>
     </row>
     <row r="57">
@@ -2439,7 +2440,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others':</t>
+          <t>specific_factorSocial connection/support:</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2448,7 +2449,7 @@
         </is>
       </c>
       <c r="D57">
-        <v>0.3267477789739618</v>
+        <v>16.8477911157131</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2457,13 +2458,13 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>1.278103112178844</v>
+        <v>1.097832216333453</v>
       </c>
       <c r="H57">
-        <v>0.6516897396911281</v>
+        <v>0.1348803451062939</v>
       </c>
       <c r="I57">
-        <v>0.6777573292787732</v>
+        <v>0.4046410353188816</v>
       </c>
     </row>
     <row r="58">
@@ -2474,7 +2475,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:</t>
+          <t>specific_factorWell-being:</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2483,22 +2484,359 @@
         </is>
       </c>
       <c r="D58">
-        <v>353.0119458571888</v>
+        <v>0.2107295542644307</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0.5214289611964645</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58">
-        <v>1.303259299997107</v>
+        <v>1.089553940623063</v>
       </c>
       <c r="H58">
-        <v>0.01515906822284044</v>
+        <v>0.8368180868807766</v>
       </c>
       <c r="I58">
-        <v>0.1313785912646171</v>
+        <v>0.867053575841323</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>specific_factorEmotional intelligence:</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>HTZ</t>
+        </is>
+      </c>
+      <c r="D59">
+        <v>0.06345434551667395</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>3.173684035597303</v>
+      </c>
+      <c r="H59">
+        <v>0.8165569565807613</v>
+      </c>
+      <c r="I59">
+        <v>0.867053575841323</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>specific_factorexternal pressures:</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>HTZ</t>
+        </is>
+      </c>
+      <c r="D60">
+        <v>44.85234235072494</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1.268512142412317</v>
+      </c>
+      <c r="H60">
+        <v>0.06069422747887999</v>
+      </c>
+      <c r="I60">
+        <v>0.3182929342397125</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>specific_factorothers' negative emotions:</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>HTZ</t>
+        </is>
+      </c>
+      <c r="D61">
+        <v>3.102665518073819</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1.277404477371408</v>
+      </c>
+      <c r="H61">
+        <v>0.2855397831779228</v>
+      </c>
+      <c r="I61">
+        <v>0.513971609720261</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>specific_factorpersonal responsibility for others:</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>HTZ</t>
+        </is>
+      </c>
+      <c r="D62">
+        <v>0.08638679671122565</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1.020544352326948</v>
+      </c>
+      <c r="H62">
+        <v>0.8172525341283284</v>
+      </c>
+      <c r="I62">
+        <v>0.867053575841323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>n_effect_sizes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>k_studies</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>300</v>
+      </c>
+      <c r="D2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>393</v>
+      </c>
+      <c r="D3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>74</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>149</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>195</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/output/13-specific-quality-factor.xlsx
+++ b/output/13-specific-quality-factor.xlsx
@@ -408,25 +408,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="D2">
-        <v>0.01121201981415426</v>
+        <v>0.009514392948594777</v>
       </c>
       <c r="E2">
-        <v>0.02163914556667072</v>
+        <v>0.0219686412651559</v>
       </c>
       <c r="F2">
-        <v>94.40250460382236</v>
+        <v>94.18471215507266</v>
       </c>
       <c r="G2">
-        <v>62.18316809463259</v>
+        <v>65.72143396182079</v>
       </c>
       <c r="H2">
-        <v>32.21933650918977</v>
+        <v>28.46327819325186</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D3">
-        <v>1.926750934309615e-09</v>
+        <v>1.386835896304686e-09</v>
       </c>
       <c r="E3">
-        <v>0.01913671616879449</v>
+        <v>0.02158826193356254</v>
       </c>
       <c r="F3">
-        <v>85.4259820164463</v>
+        <v>87.44908859528263</v>
       </c>
       <c r="G3">
-        <v>85.4259734154631</v>
+        <v>87.44908297752944</v>
       </c>
       <c r="H3">
-        <v>8.600983190676671e-06</v>
+        <v>5.617753191312674e-06</v>
       </c>
     </row>
   </sheetData>
@@ -464,7 +464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -534,22 +534,22 @@
         </is>
       </c>
       <c r="D2">
-        <v>1.498823360541063e+27</v>
+        <v>5.479930826407552e+27</v>
       </c>
       <c r="E2">
-        <v>0.7655447827216934</v>
+        <v>0.7821911315690809</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2">
-        <v>9.795620565947544</v>
+        <v>10.77354384884236</v>
       </c>
       <c r="H2">
-        <v>3.750866962371731e-131</v>
+        <v>5.020500147369746e-147</v>
       </c>
       <c r="I2">
-        <v>1.237786097582671e-129</v>
+        <v>1.506150044210924e-145</v>
       </c>
     </row>
     <row r="3">
@@ -560,7 +560,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>specific_factorOthers' controlled motivation:</t>
+          <t>specific_factorIll-being:</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="D3">
-        <v>12.29598242695234</v>
+        <v>124397.2649997869</v>
       </c>
       <c r="E3">
-        <v>0.7410456971334866</v>
+        <v>0.3302280214706669</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>2.861685204418029</v>
+        <v>1.479136327242769</v>
       </c>
       <c r="H3">
-        <v>0.03934990663347204</v>
+        <v>0.0001422159506841988</v>
       </c>
       <c r="I3">
-        <v>0.2164244864840962</v>
+        <v>0.001422159506841988</v>
       </c>
     </row>
     <row r="4">
@@ -595,7 +595,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation:</t>
+          <t>specific_factorOthers' controlled motivation:</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -604,22 +604,22 @@
         </is>
       </c>
       <c r="D4">
-        <v>1.438553991966951</v>
+        <v>11.95226375801045</v>
       </c>
       <c r="E4">
-        <v>0.8214858872293622</v>
+        <v>0.7208066142931565</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>4.601798000614332</v>
+        <v>2.581746743277122</v>
       </c>
       <c r="H4">
-        <v>0.3271268479324197</v>
+        <v>0.04952090762499162</v>
       </c>
       <c r="I4">
-        <v>0.6245637594007114</v>
+        <v>0.2476045381249581</v>
       </c>
     </row>
     <row r="5">
@@ -630,7 +630,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:</t>
+          <t>specific_factorAutonomous causality orientation:</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -639,22 +639,22 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.3046354578459665</v>
+        <v>1.622197564398166</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.8152215913303751</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>3.87382838680706</v>
+        <v>4.411887715668948</v>
       </c>
       <c r="H5">
-        <v>0.6112790933565191</v>
+        <v>0.2964226182264373</v>
       </c>
       <c r="I5">
-        <v>0.7471188918801901</v>
+        <v>0.6260133532765096</v>
       </c>
     </row>
     <row r="6">
@@ -665,7 +665,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:</t>
+          <t>specific_factorControlled causality orientation:</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -674,22 +674,22 @@
         </is>
       </c>
       <c r="D6">
-        <v>1.154007821793697</v>
+        <v>0.548079835001605</v>
       </c>
       <c r="E6">
-        <v>0.7000565812732933</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>4.66792426548388</v>
+        <v>3.49916567929378</v>
       </c>
       <c r="H6">
-        <v>0.4181672595624074</v>
+        <v>0.5056737707410092</v>
       </c>
       <c r="I6">
-        <v>0.6245637594007114</v>
+        <v>0.6260133532765096</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:</t>
+          <t>specific_factorControlled motivation:</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="D7">
-        <v>1.215364259592051</v>
+        <v>1.029653403738845</v>
       </c>
       <c r="E7">
-        <v>0.663658394976621</v>
+        <v>0.719484452298818</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>1.973167711233614</v>
+        <v>5.129729586791</v>
       </c>
       <c r="H7">
-        <v>0.4529025556598744</v>
+        <v>0.4527493493313822</v>
       </c>
       <c r="I7">
-        <v>0.6245637594007114</v>
+        <v>0.6260133532765096</v>
       </c>
     </row>
     <row r="8">
@@ -735,7 +735,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:</t>
+          <t>specific_factorExternal pressure in terms of constraints:</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -744,22 +744,22 @@
         </is>
       </c>
       <c r="D8">
-        <v>72.39797904767069</v>
+        <v>1.193502039523631</v>
       </c>
       <c r="E8">
-        <v>0.5716923895643496</v>
+        <v>0.6574876510044213</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>2.669541122479035</v>
+        <v>1.919602761571988</v>
       </c>
       <c r="H8">
-        <v>0.004517931530519631</v>
+        <v>0.4604503365755592</v>
       </c>
       <c r="I8">
-        <v>0.04969724683571594</v>
+        <v>0.6260133532765096</v>
       </c>
     </row>
     <row r="9">
@@ -779,22 +779,22 @@
         </is>
       </c>
       <c r="D9">
-        <v>4.880398540224151</v>
+        <v>1.442211940883342</v>
       </c>
       <c r="E9">
-        <v>0.5301049402522534</v>
+        <v>0.5179991281381894</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>1.128134738289926</v>
+        <v>1.074685043903197</v>
       </c>
       <c r="H9">
-        <v>0.2783591862047585</v>
+        <v>0.4962427791624339</v>
       </c>
       <c r="I9">
-        <v>0.6245637594007114</v>
+        <v>0.6260133532765096</v>
       </c>
     </row>
     <row r="10">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="D10">
-        <v>1.75978984408193</v>
+        <v>1.743304455388893</v>
       </c>
       <c r="E10">
-        <v>0.5059109446446846</v>
+        <v>0.4863698880262406</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10">
-        <v>2.047853273256043</v>
+        <v>1.893852703289673</v>
       </c>
       <c r="H10">
-        <v>0.3788937062694577</v>
+        <v>0.3928325143139396</v>
       </c>
       <c r="I10">
-        <v>0.6245637594007114</v>
+        <v>0.6260133532765096</v>
       </c>
     </row>
     <row r="11">
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>60.62467896371808</v>
+        <v>67.58794170390334</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -858,13 +858,13 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.98520218838553</v>
+        <v>1.792011778658954</v>
       </c>
       <c r="H11">
-        <v>0.01644135792489077</v>
+        <v>0.0198174970998295</v>
       </c>
       <c r="I11">
-        <v>0.1356412028803489</v>
+        <v>0.1466747100867407</v>
       </c>
     </row>
     <row r="12">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.2438938439042631</v>
+        <v>0.3559844242279788</v>
       </c>
       <c r="E12">
-        <v>0.6862929315543742</v>
+        <v>0.6604797995326829</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12">
-        <v>2.187687178854014</v>
+        <v>1.945332850957309</v>
       </c>
       <c r="H12">
-        <v>0.8023815746216109</v>
+        <v>0.7383381426122561</v>
       </c>
       <c r="I12">
-        <v>0.9110679281984798</v>
+        <v>0.7637980785644028</v>
       </c>
     </row>
     <row r="13">
@@ -919,22 +919,22 @@
         </is>
       </c>
       <c r="D13">
-        <v>2.041916424731003</v>
+        <v>7.837042652325402</v>
       </c>
       <c r="E13">
-        <v>0.5630062489731221</v>
+        <v>0.6475189418028872</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13">
-        <v>1.288362242366468</v>
+        <v>1.837031882265812</v>
       </c>
       <c r="H13">
-        <v>0.3985973484355178</v>
+        <v>0.1260642076146621</v>
       </c>
       <c r="I13">
-        <v>0.6245637594007114</v>
+        <v>0.3781926228439864</v>
       </c>
     </row>
     <row r="14">
@@ -954,22 +954,22 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.1285699046899958</v>
+        <v>0.6893084312193588</v>
       </c>
       <c r="E14">
-        <v>0.05367792488812805</v>
+        <v>0.3971987168085189</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
       <c r="G14">
-        <v>0.113445361362372</v>
+        <v>1.317842970424958</v>
       </c>
       <c r="H14">
-        <v>0.9449354190699563</v>
+        <v>0.6645493560151061</v>
       </c>
       <c r="I14">
-        <v>0.9449354190699563</v>
+        <v>0.7120171671590423</v>
       </c>
     </row>
     <row r="15">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="D15">
-        <v>2.202155123386043e+31</v>
+        <v>3.60206161870552e+32</v>
       </c>
       <c r="E15">
-        <v>0.7984937372674933</v>
+        <v>0.8002324861988586</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15">
-        <v>7.925249830348639</v>
+        <v>8.011637838126674</v>
       </c>
       <c r="H15">
-        <v>7.265048153165771e-123</v>
+        <v>4.8372639955424e-129</v>
       </c>
       <c r="I15">
-        <v>1.198732945272352e-121</v>
+        <v>7.255895993313599e-128</v>
       </c>
     </row>
     <row r="16">
@@ -1024,22 +1024,22 @@
         </is>
       </c>
       <c r="D16">
-        <v>4.169798959018908</v>
+        <v>4.288961921640995</v>
       </c>
       <c r="E16">
-        <v>0.3959818358054585</v>
+        <v>0.3887703262323912</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16">
-        <v>0.6555793505539698</v>
+        <v>0.6360462243857008</v>
       </c>
       <c r="H16">
-        <v>0.4238157742609744</v>
+        <v>0.4273547014821159</v>
       </c>
       <c r="I16">
-        <v>0.6245637594007114</v>
+        <v>0.6260133532765096</v>
       </c>
     </row>
     <row r="17">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="D17">
-        <v>2.395479912849033</v>
+        <v>3.74515867255907</v>
       </c>
       <c r="E17">
-        <v>0.4170333569233191</v>
+        <v>0.4578586789019097</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
       <c r="G17">
-        <v>1.430728024925653</v>
+        <v>1.689075010827551</v>
       </c>
       <c r="H17">
-        <v>0.3671240623581098</v>
+        <v>0.2491365145991687</v>
       </c>
       <c r="I17">
-        <v>0.6245637594007114</v>
+        <v>0.5982018235911546</v>
       </c>
     </row>
     <row r="18">
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="D18">
-        <v>12.02806993693774</v>
+        <v>12.70351960206062</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1103,13 +1103,13 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.281293289372887</v>
+        <v>3.906316459178253</v>
       </c>
       <c r="H18">
-        <v>0.02297439822457596</v>
+        <v>0.02444578501445678</v>
       </c>
       <c r="I18">
-        <v>0.1516310282822013</v>
+        <v>0.1466747100867407</v>
       </c>
     </row>
     <row r="19">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>specific_factorautonomous motivation:</t>
+          <t>specific_factorEmotional intelligence:</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1129,22 +1129,22 @@
         </is>
       </c>
       <c r="D19">
-        <v>9.66490995096971</v>
+        <v>3.350274724516738</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0.6635007010268779</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>1.832323911235229</v>
+        <v>1.971774393146283</v>
       </c>
       <c r="H19">
-        <v>0.100092590457428</v>
+        <v>0.232166842535597</v>
       </c>
       <c r="I19">
-        <v>0.4128819356368907</v>
+        <v>0.5982018235911546</v>
       </c>
     </row>
     <row r="20">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>specific_factorcontrolled motivation:</t>
+          <t>specific_factorEntity beliefs:</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1164,22 +1164,22 @@
         </is>
       </c>
       <c r="D20">
-        <v>0.220727479356288</v>
+        <v>1.99583867863329</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0.643299778860416</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>3.470392186833807</v>
+        <v>1.803474572584242</v>
       </c>
       <c r="H20">
-        <v>0.6664603268476211</v>
+        <v>0.3490277454544044</v>
       </c>
       <c r="I20">
-        <v>0.7854710994989821</v>
+        <v>0.6260133532765096</v>
       </c>
     </row>
     <row r="21">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>specific_factorentity beliefs:</t>
+          <t>specific_factorExternal pressures:</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1199,22 +1199,22 @@
         </is>
       </c>
       <c r="D21">
-        <v>1.962903823118831</v>
+        <v>0.6774120448673174</v>
       </c>
       <c r="E21">
-        <v>0.6557969767285547</v>
+        <v>0.6445398195450573</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="G21">
-        <v>1.905262105183139</v>
+        <v>1.813254634373196</v>
       </c>
       <c r="H21">
-        <v>0.3445228412944538</v>
+        <v>0.6029627774946846</v>
       </c>
       <c r="I21">
-        <v>0.6245637594007114</v>
+        <v>0.6758059200769716</v>
       </c>
     </row>
     <row r="22">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:</t>
+          <t>specific_factorNeed frustration:</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1234,22 +1234,22 @@
         </is>
       </c>
       <c r="D22">
-        <v>1.300123617690266</v>
+        <v>1.585201032856211</v>
       </c>
       <c r="E22">
-        <v>0.6298993698708177</v>
+        <v>0.7498497075470882</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22">
-        <v>1.701967839533139</v>
+        <v>2.997596765505441</v>
       </c>
       <c r="H22">
-        <v>0.4542281886550628</v>
+        <v>0.3390938749308166</v>
       </c>
       <c r="I22">
-        <v>0.6245637594007114</v>
+        <v>0.6260133532765096</v>
       </c>
     </row>
     <row r="23">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>specific_factorill-being:</t>
+          <t>specific_factorNegative beliefs about knowledge and learning:</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1268,23 +1268,13 @@
           <t>HTZ</t>
         </is>
       </c>
-      <c r="D23">
-        <v>6.041912947612166</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23">
-        <v>1.056839938082264</v>
-      </c>
-      <c r="H23">
-        <v>0.2350583579774402</v>
-      </c>
-      <c r="I23">
-        <v>0.6245637594007114</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1295,7 +1285,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:</t>
+          <t>specific_factorOthers' abilities:</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1304,22 +1294,22 @@
         </is>
       </c>
       <c r="D24">
-        <v>1.521286725966728</v>
+        <v>1.607418461658219</v>
       </c>
       <c r="E24">
-        <v>0.7706912048539999</v>
+        <v>0.5502738415655651</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24">
-        <v>3.360931726858988</v>
+        <v>1.223575349677573</v>
       </c>
       <c r="H24">
-        <v>0.3384854556794075</v>
+        <v>0.4546168209453448</v>
       </c>
       <c r="I24">
-        <v>0.6245637594007114</v>
+        <v>0.6260133532765096</v>
       </c>
     </row>
     <row r="25">
@@ -1330,7 +1320,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:</t>
+          <t>specific_factorOthers' negative behaviours:</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1339,7 +1329,7 @@
         </is>
       </c>
       <c r="D25">
-        <v>4.221994416717738</v>
+        <v>0.328692894761244</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1348,13 +1338,13 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.022678931032907</v>
+        <v>2.872395475146778</v>
       </c>
       <c r="H25">
-        <v>0.1748214714008147</v>
+        <v>0.6082253280692744</v>
       </c>
       <c r="I25">
-        <v>0.5244644142024441</v>
+        <v>0.6758059200769716</v>
       </c>
     </row>
     <row r="26">
@@ -1365,7 +1355,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>specific_factorothers' negative behaviours:</t>
+          <t>specific_factorOthers' positive behaviours:</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1374,22 +1364,22 @@
         </is>
       </c>
       <c r="D26">
-        <v>0.3176321676509883</v>
+        <v>5.283527989964685</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0.7215720787006739</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>3.390814783105863</v>
+        <v>2.591593814777442</v>
       </c>
       <c r="H26">
-        <v>0.6081831976718748</v>
+        <v>0.1217946401450724</v>
       </c>
       <c r="I26">
-        <v>0.7471188918801901</v>
+        <v>0.3781926228439864</v>
       </c>
     </row>
     <row r="27">
@@ -1400,7 +1390,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:</t>
+          <t>specific_factorOthers' positive emotions:</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1409,7 +1399,7 @@
         </is>
       </c>
       <c r="D27">
-        <v>7.289078316131716</v>
+        <v>1.822174776255078</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1418,13 +1408,13 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.498212920461838</v>
+        <v>3.430901752841317</v>
       </c>
       <c r="H27">
-        <v>0.06248201274991709</v>
+        <v>0.2592207902228337</v>
       </c>
       <c r="I27">
-        <v>0.294558060106752</v>
+        <v>0.5982018235911546</v>
       </c>
     </row>
     <row r="28">
@@ -1435,7 +1425,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>specific_factorothers' positive emotions:</t>
+          <t>specific_factorPersonal responsibility for others' motivation motivation:</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1444,7 +1434,7 @@
         </is>
       </c>
       <c r="D28">
-        <v>4.168303676110396</v>
+        <v>0.02253247579136091</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1453,13 +1443,13 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.633244734621245</v>
+        <v>1.636322067893144</v>
       </c>
       <c r="H28">
-        <v>0.1177875622594737</v>
+        <v>0.8970821197226689</v>
       </c>
       <c r="I28">
-        <v>0.4318877282847368</v>
+        <v>0.8970821197226689</v>
       </c>
     </row>
     <row r="29">
@@ -1470,7 +1460,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions:</t>
+          <t>specific_factorPositive beliefs about knowledge and learning:</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1479,7 +1469,7 @@
         </is>
       </c>
       <c r="D29">
-        <v>0.4590348303785368</v>
+        <v>32.19823316788633</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1488,13 +1478,13 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.824894436786414</v>
+        <v>1.082183407867791</v>
       </c>
       <c r="H29">
-        <v>0.5493964910894841</v>
+        <v>0.09786023189352142</v>
       </c>
       <c r="I29">
-        <v>0.725203368238119</v>
+        <v>0.3781926228439864</v>
       </c>
     </row>
     <row r="30">
@@ -1505,7 +1495,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:</t>
+          <t>specific_factorIncremental beliefs:</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1514,7 +1504,7 @@
         </is>
       </c>
       <c r="D30">
-        <v>0.01791280930989531</v>
+        <v>0.6561509779280565</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1523,13 +1513,13 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.973803970840154</v>
+        <v>1.581575491238601</v>
       </c>
       <c r="H30">
-        <v>0.9059264689234667</v>
+        <v>0.5216777943970914</v>
       </c>
       <c r="I30">
-        <v>0.9449354190699563</v>
+        <v>0.6260133532765096</v>
       </c>
     </row>
     <row r="31">
@@ -1540,7 +1530,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning:</t>
+          <t>specific_factorNegative personality:</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1549,7 +1539,7 @@
         </is>
       </c>
       <c r="D31">
-        <v>12.7130558877729</v>
+        <v>6.470280314398418</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1558,13 +1548,13 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.145155729670103</v>
+        <v>2.219114298825447</v>
       </c>
       <c r="H31">
-        <v>0.1486060989263921</v>
+        <v>0.1137657157436595</v>
       </c>
       <c r="I31">
-        <v>0.490400126457094</v>
+        <v>0.3781926228439864</v>
       </c>
     </row>
     <row r="32">
@@ -1575,7 +1565,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>specific_factorself-efficacy:</t>
+          <t>specific_factorPersonal responsibility for others' motivation:</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1584,7 +1574,7 @@
         </is>
       </c>
       <c r="D32">
-        <v>1.787877911636986</v>
+        <v>0.9090682017991595</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1593,24 +1583,24 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.456639474470342</v>
+        <v>4.718968352831042</v>
       </c>
       <c r="H32">
-        <v>0.29150920282382</v>
+        <v>0.3866060421636281</v>
       </c>
       <c r="I32">
-        <v>0.6245637594007114</v>
+        <v>0.6260133532765096</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:</t>
+          <t>specific_factorAutonomous causality orientation:</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1619,7 +1609,7 @@
         </is>
       </c>
       <c r="D33">
-        <v>0.007645343709991219</v>
+        <v>4.775609442897989</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1628,24 +1618,24 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.451940727653588</v>
+        <v>1.849315860727335</v>
       </c>
       <c r="H33">
-        <v>0.9369575096863141</v>
+        <v>0.1707256030441013</v>
       </c>
       <c r="I33">
-        <v>0.9449354190699563</v>
+        <v>0.3699054732622195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>specific_factorothers abilities:</t>
+          <t>specific_factorAutonomous motivation:</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1653,24 +1643,34 @@
           <t>HTZ</t>
         </is>
       </c>
+      <c r="D34">
+        <v>4.849941353277822</v>
+      </c>
+      <c r="E34">
+        <v>0.5274010144470964</v>
+      </c>
       <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>2.231917674685987</v>
+      </c>
+      <c r="H34">
+        <v>0.1570868527504111</v>
+      </c>
+      <c r="I34">
+        <v>0.3699054732622195</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>specific_factorpersonal responsibility for others:</t>
+          <t>specific_factorControlled causality orientation:</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="D35">
-        <v>0.06302880698259031</v>
+        <v>100.7296934398145</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1688,13 +1688,13 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.740430263401004</v>
+        <v>1.84931586072734</v>
       </c>
       <c r="H35">
-        <v>0.8282435710895271</v>
+        <v>0.01262487529347459</v>
       </c>
       <c r="I35">
-        <v>0.9110679281984798</v>
+        <v>0.1313785912646171</v>
       </c>
     </row>
     <row r="36">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation:</t>
+          <t>specific_factorControlled motivation:</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D36">
-        <v>2.826612480344658</v>
+        <v>2.769445242017321</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0.443173487294914</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G36">
-        <v>1.606563786989779</v>
+        <v>1.59178299589924</v>
       </c>
       <c r="H36">
-        <v>0.2639915124477477</v>
+        <v>0.3175313927889735</v>
       </c>
       <c r="I36">
-        <v>0.5091264882920848</v>
+        <v>0.4932470655390919</v>
       </c>
     </row>
     <row r="37">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:</t>
+          <t>specific_factorExternal pressure in terms of constraints:</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D37">
-        <v>7.958964377186649</v>
+        <v>1.063560057046747</v>
       </c>
       <c r="E37">
-        <v>0.4332031106229974</v>
+        <v>0.6149364019450609</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>1.528600875347621</v>
+        <v>1.596973603974179</v>
       </c>
       <c r="H37">
-        <v>0.1609409869006601</v>
+        <v>0.5086020970232492</v>
       </c>
       <c r="I37">
-        <v>0.4345406646317823</v>
+        <v>0.6296978344097371</v>
       </c>
     </row>
     <row r="38">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:</t>
+          <t>specific_factorMastery goals:</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1784,22 +1784,22 @@
         </is>
       </c>
       <c r="D38">
-        <v>92.18554688924299</v>
+        <v>1.03727010339965</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0.35574285385895</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>1.606563786989778</v>
+        <v>0.5521752548493513</v>
       </c>
       <c r="H38">
-        <v>0.02077429952992112</v>
+        <v>0.6501235316356918</v>
       </c>
       <c r="I38">
-        <v>0.2804530436539351</v>
+        <v>0.6777573292787732</v>
       </c>
     </row>
     <row r="39">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:</t>
+          <t>specific_factorNeed satisfaction:</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1819,22 +1819,22 @@
         </is>
       </c>
       <c r="D39">
-        <v>2.737804661901658</v>
+        <v>2.116467436555103</v>
       </c>
       <c r="E39">
-        <v>0.4268836144010363</v>
+        <v>0.4281256858218669</v>
       </c>
       <c r="F39">
         <v>3</v>
       </c>
       <c r="G39">
-        <v>1.48969258296428</v>
+        <v>1.49727195367096</v>
       </c>
       <c r="H39">
-        <v>0.3323494469327112</v>
+        <v>0.3853664563740055</v>
       </c>
       <c r="I39">
-        <v>0.5608396916989501</v>
+        <v>0.527343571880218</v>
       </c>
     </row>
     <row r="40">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:</t>
+          <t>specific_factorOthers' autonomous motivation:</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1854,22 +1854,22 @@
         </is>
       </c>
       <c r="D40">
-        <v>0.8699338678148218</v>
+        <v>0.5389271563766862</v>
       </c>
       <c r="E40">
-        <v>0.6168078153485693</v>
+        <v>0.7134632946360265</v>
       </c>
       <c r="F40">
         <v>2</v>
       </c>
       <c r="G40">
-        <v>1.609656564132815</v>
+        <v>2.489954275595335</v>
       </c>
       <c r="H40">
-        <v>0.5544513859439353</v>
+        <v>0.6390309664768614</v>
       </c>
       <c r="I40">
-        <v>0.7485093710243127</v>
+        <v>0.6777573292787732</v>
       </c>
     </row>
     <row r="41">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:</t>
+          <t>specific_factorOthers' controlled motivation:</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1889,22 +1889,22 @@
         </is>
       </c>
       <c r="D41">
-        <v>1.402797497727567</v>
+        <v>1.482401427946525</v>
       </c>
       <c r="E41">
-        <v>0.3504087464971939</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>0.5394295945453031</v>
+        <v>2.134806493960617</v>
       </c>
       <c r="H41">
-        <v>0.6113087129303698</v>
+        <v>0.3408293580200688</v>
       </c>
       <c r="I41">
-        <v>0.7763051659235531</v>
+        <v>0.4932470655390919</v>
       </c>
     </row>
     <row r="42">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:</t>
+          <t>specific_factorPerformance goals:</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1924,22 +1924,22 @@
         </is>
       </c>
       <c r="D42">
-        <v>1.350099622133749</v>
+        <v>29.40872867115083</v>
       </c>
       <c r="E42">
-        <v>0.4211121833374717</v>
+        <v>0.4061468268596932</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>1.45490083299841</v>
+        <v>0.6839179198319025</v>
       </c>
       <c r="H42">
-        <v>0.4939184684864246</v>
+        <v>0.2171514457462853</v>
       </c>
       <c r="I42">
-        <v>0.701884139428077</v>
+        <v>0.4343028914925706</v>
       </c>
     </row>
     <row r="43">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:</t>
+          <t>specific_factorAmotivation:</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1959,22 +1959,22 @@
         </is>
       </c>
       <c r="D43">
-        <v>48.45109373473091</v>
+        <v>1.612235306931158</v>
       </c>
       <c r="E43">
-        <v>0.4887040111114597</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0.9558142870899669</v>
+        <v>4.174199767900515</v>
       </c>
       <c r="H43">
-        <v>0.109471268778975</v>
+        <v>0.2703494973843256</v>
       </c>
       <c r="I43">
-        <v>0.3694655321290408</v>
+        <v>0.4932470655390919</v>
       </c>
     </row>
     <row r="44">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>specific_factorOthers' controlled motivation:</t>
+          <t>specific_factorEmotional intelligence:</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1994,22 +1994,22 @@
         </is>
       </c>
       <c r="D44">
-        <v>1.107443769650151</v>
+        <v>6.522245668680798</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0.7339923673062738</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44">
-        <v>2.259751954267577</v>
+        <v>2.759290625887312</v>
       </c>
       <c r="H44">
-        <v>0.3920006378079987</v>
+        <v>0.09000758188562058</v>
       </c>
       <c r="I44">
-        <v>0.6010575130889599</v>
+        <v>0.2925246411282669</v>
       </c>
     </row>
     <row r="45">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:</t>
+          <t>specific_factorEntity beliefs:</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2029,22 +2029,22 @@
         </is>
       </c>
       <c r="D45">
-        <v>8.681929847284122</v>
+        <v>43.03558387186694</v>
       </c>
       <c r="E45">
-        <v>0.3403140558276628</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>0.5158728313586121</v>
+        <v>2.655608166544663</v>
       </c>
       <c r="H45">
-        <v>0.4007050087259733</v>
+        <v>0.01038620079209003</v>
       </c>
       <c r="I45">
-        <v>0.6010575130889599</v>
+        <v>0.1313785912646171</v>
       </c>
     </row>
     <row r="46">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>specific_factorAmotivation:</t>
+          <t>specific_factorExternal pressures:</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D46">
-        <v>1.790993226236052</v>
+        <v>175.5381272532186</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0.5707390946959999</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46">
-        <v>4.078163293280327</v>
+        <v>1.329585544930549</v>
       </c>
       <c r="H46">
-        <v>0.2505488642388905</v>
+        <v>0.02449006005107874</v>
       </c>
       <c r="I46">
-        <v>0.5091264882920848</v>
+        <v>0.132608978589355</v>
       </c>
     </row>
     <row r="47">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>specific_factorautonomous motivation:</t>
+          <t>specific_factorIll-being:</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D47">
-        <v>5.002223435630119</v>
+        <v>0.60392012001331</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0.7379457948894119</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>1.040545444991948</v>
+        <v>2.816004400990228</v>
       </c>
       <c r="H47">
-        <v>0.2598695524434761</v>
+        <v>0.6049905215625512</v>
       </c>
       <c r="I47">
-        <v>0.5091264882920848</v>
+        <v>0.6777573292787732</v>
       </c>
     </row>
     <row r="48">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>specific_factorentity beliefs:</t>
+          <t>specific_factorNeed frustration:</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2134,22 +2134,22 @@
         </is>
       </c>
       <c r="D48">
-        <v>32.52087596493006</v>
+        <v>14.8363417569698</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0.7544871427494791</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48">
-        <v>2.741381479701532</v>
+        <v>3.073106440122612</v>
       </c>
       <c r="H48">
-        <v>0.01360268653055748</v>
+        <v>0.02636767982429265</v>
       </c>
       <c r="I48">
-        <v>0.2804530436539351</v>
+        <v>0.132608978589355</v>
       </c>
     </row>
     <row r="49">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:</t>
+          <t>specific_factorOthers' abilities:</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2169,7 +2169,7 @@
         </is>
       </c>
       <c r="D49">
-        <v>0.04246845105915066</v>
+        <v>21.85974180631709</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2178,13 +2178,13 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>1.153471791533616</v>
+        <v>1.045457108228126</v>
       </c>
       <c r="H49">
-        <v>0.867053575841323</v>
+        <v>0.1260599134722631</v>
       </c>
       <c r="I49">
-        <v>0.867053575841323</v>
+        <v>0.3277557750278839</v>
       </c>
     </row>
     <row r="50">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:</t>
+          <t>specific_factorOthers' negative behaviours:</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2204,22 +2204,22 @@
         </is>
       </c>
       <c r="D50">
-        <v>0.5572145435955316</v>
+        <v>3.232612500569986</v>
       </c>
       <c r="E50">
-        <v>0.70672730953888</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>2.409795840273006</v>
+        <v>1.184278573317002</v>
       </c>
       <c r="H50">
-        <v>0.632544950011784</v>
+        <v>0.2925618092775299</v>
       </c>
       <c r="I50">
-        <v>0.7763051659235531</v>
+        <v>0.4932470655390919</v>
       </c>
     </row>
     <row r="51">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:</t>
+          <t>specific_factorPersonal responsibility for others' motivation motivation:</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2239,22 +2239,22 @@
         </is>
       </c>
       <c r="D51">
-        <v>8.559413333223899</v>
+        <v>0.07735465829664066</v>
       </c>
       <c r="E51">
-        <v>0.7460216029297936</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>2.937342748578625</v>
+        <v>1.240036887130718</v>
       </c>
       <c r="H51">
-        <v>0.05952470052141486</v>
+        <v>0.820091287557883</v>
       </c>
       <c r="I51">
-        <v>0.3182929342397125</v>
+        <v>0.820091287557883</v>
       </c>
     </row>
     <row r="52">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:</t>
+          <t>specific_factorSelf-efficacy:</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2274,7 +2274,7 @@
         </is>
       </c>
       <c r="D52">
-        <v>117.6830941165788</v>
+        <v>2.199429821207028</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2283,13 +2283,13 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>1.180221803406611</v>
+        <v>1.245336641829198</v>
       </c>
       <c r="H52">
-        <v>0.0397922556712957</v>
+        <v>0.3414787376809097</v>
       </c>
       <c r="I52">
-        <v>0.3182929342397125</v>
+        <v>0.4932470655390919</v>
       </c>
     </row>
     <row r="53">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>specific_factorothers' autonomous motivation:</t>
+          <t>specific_factorSocial connection/support:</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="D53">
-        <v>11.38622602861997</v>
+        <v>20.76854411212265</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2318,13 +2318,13 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>1.63316590677731</v>
+        <v>1.081675906482041</v>
       </c>
       <c r="H53">
-        <v>0.1020301103953869</v>
+        <v>0.12333928787476</v>
       </c>
       <c r="I53">
-        <v>0.3694655321290408</v>
+        <v>0.3277557750278839</v>
       </c>
     </row>
     <row r="54">
@@ -2335,7 +2335,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>specific_factorothers' negative behaviours:</t>
+          <t>specific_factorWell-being:</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2344,22 +2344,22 @@
         </is>
       </c>
       <c r="D54">
-        <v>35.66133630712098</v>
+        <v>1.496957786837529</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0.5737855735299444</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54">
-        <v>1.261172964229582</v>
+        <v>1.346236865518809</v>
       </c>
       <c r="H54">
-        <v>0.07073176316438055</v>
+        <v>0.4547761621163782</v>
       </c>
       <c r="I54">
-        <v>0.3182929342397125</v>
+        <v>0.5912090107512917</v>
       </c>
     </row>
     <row r="55">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:</t>
+          <t>specific_factorNegative personality:</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="D55">
-        <v>0.09154028008051078</v>
+        <v>11.69621834090322</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2388,13 +2388,13 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>1.209294542090686</v>
+        <v>3.673497022096325</v>
       </c>
       <c r="H55">
-        <v>0.8059492491390345</v>
+        <v>0.03060207198215884</v>
       </c>
       <c r="I55">
-        <v>0.867053575841323</v>
+        <v>0.132608978589355</v>
       </c>
     </row>
     <row r="56">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:</t>
+          <t>specific_factorOthers' negative emotions:</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="D56">
-        <v>3.070582855713386</v>
+        <v>17.51802069065712</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2423,13 +2423,13 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>1.787838904242759</v>
+        <v>2.297505091578018</v>
       </c>
       <c r="H56">
-        <v>0.2364280769170139</v>
+        <v>0.04115862190230401</v>
       </c>
       <c r="I56">
-        <v>0.5091264882920848</v>
+        <v>0.1528748813514149</v>
       </c>
     </row>
     <row r="57">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:</t>
+          <t>specific_factorPersonal responsibility for others' motivation:</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2449,7 +2449,7 @@
         </is>
       </c>
       <c r="D57">
-        <v>16.8477911157131</v>
+        <v>0.3267477789739618</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2458,13 +2458,13 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>1.097832216333453</v>
+        <v>1.278103112178844</v>
       </c>
       <c r="H57">
-        <v>0.1348803451062939</v>
+        <v>0.6516897396911281</v>
       </c>
       <c r="I57">
-        <v>0.4046410353188816</v>
+        <v>0.6777573292787732</v>
       </c>
     </row>
     <row r="58">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>specific_factorWell-being:</t>
+          <t>specific_factorStyle-related beliefs:</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2484,162 +2484,22 @@
         </is>
       </c>
       <c r="D58">
-        <v>0.2107295542644307</v>
+        <v>353.0119458571888</v>
       </c>
       <c r="E58">
-        <v>0.5214289611964645</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>1.089553940623063</v>
+        <v>1.303259299997107</v>
       </c>
       <c r="H58">
-        <v>0.8368180868807766</v>
+        <v>0.01515906822284044</v>
       </c>
       <c r="I58">
-        <v>0.867053575841323</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>specific_factorEmotional intelligence:</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>HTZ</t>
-        </is>
-      </c>
-      <c r="D59">
-        <v>0.06345434551667395</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>3.173684035597303</v>
-      </c>
-      <c r="H59">
-        <v>0.8165569565807613</v>
-      </c>
-      <c r="I59">
-        <v>0.867053575841323</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>specific_factorexternal pressures:</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>HTZ</t>
-        </is>
-      </c>
-      <c r="D60">
-        <v>44.85234235072494</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>1.268512142412317</v>
-      </c>
-      <c r="H60">
-        <v>0.06069422747887999</v>
-      </c>
-      <c r="I60">
-        <v>0.3182929342397125</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>specific_factorothers' negative emotions:</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>HTZ</t>
-        </is>
-      </c>
-      <c r="D61">
-        <v>3.102665518073819</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>1.277404477371408</v>
-      </c>
-      <c r="H61">
-        <v>0.2855397831779228</v>
-      </c>
-      <c r="I61">
-        <v>0.513971609720261</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>specific_factorpersonal responsibility for others:</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>HTZ</t>
-        </is>
-      </c>
-      <c r="D62">
-        <v>0.08638679671122565</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>1.020544352326948</v>
-      </c>
-      <c r="H62">
-        <v>0.8172525341283284</v>
-      </c>
-      <c r="I62">
-        <v>0.867053575841323</v>
+        <v>0.1313785912646171</v>
       </c>
     </row>
   </sheetData>
@@ -2649,7 +2509,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E194"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2663,15 +2523,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>specific_factor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>quality_score_out_of_5</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>n_effect_sizes</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>k_studies</t>
         </is>
@@ -2685,14 +2550,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C2">
-        <v>300</v>
+          <t>Amotivation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2703,14 +2573,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Amotivation</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C3">
-        <v>393</v>
-      </c>
       <c r="D3">
-        <v>31</v>
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2721,14 +2596,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>74</v>
+          <t>Autonomous causality orientation</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2739,14 +2619,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C5">
-        <v>69</v>
+          <t>Autonomous causality orientation</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2757,86 +2642,4343 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6">
-        <v>9</v>
+          <t>Autonomous causality orientation</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C7">
-        <v>149</v>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>195</v>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>41</v>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>47</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Behavioral investment</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Coherence of mind</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C10">
-        <v>53</v>
-      </c>
-      <c r="D10">
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Controlled causality orientation</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Controlled causality orientation</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Entity beliefs</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Entity beliefs</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Extrinsic goals</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Harmonious passion</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Incremental beliefs</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Incremental beliefs</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Internal pressures</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Intrinsic goals</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Invitation from others' to help</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Job security</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Low Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>28</v>
+      </c>
+      <c r="E47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D51">
+        <v>58</v>
+      </c>
+      <c r="E51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D52">
+        <v>26</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Negative beliefs about knowledge and learning</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Negative beliefs about knowledge and learning</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D54">
+        <v>18</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Negative beliefs about motivation</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Negative life events</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Obsessive passion</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Opportunitiies for professional development</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Others' abilities</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Others' abilities</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Others' abilities</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D65">
+        <v>33</v>
+      </c>
+      <c r="E65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Others' controlled motivation</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Others' controlled motivation</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Others' controlled motivation</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Others' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Others' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D71">
+        <v>7</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Others' negative emotions</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D72">
+        <v>11</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Others' positive behaviours</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D73">
         <v>8</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Others' positive behaviours</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Others' positive behaviours</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Others' positive emotions</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Performance goals</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Performance goals</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Performance goals</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D79">
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D80">
+        <v>8</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation motivation</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation motivation</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Positive beliefs about knowledge and learning</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Positive beliefs about knowledge and learning</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Positive beliefs about motivation</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Positive personality</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Prior positive related experiences</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D88">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D89">
+        <v>7</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D90">
+        <v>24</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D94">
+        <v>11</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D95">
+        <v>10</v>
+      </c>
+      <c r="E95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D97">
+        <v>13</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D98">
+        <v>6</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D100">
+        <v>17</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Amotivation</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Amotivation</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D105">
+        <v>6</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Autonomous causality orientation</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Autonomous causality orientation</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D108">
+        <v>14</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D109">
+        <v>10</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D110">
+        <v>7</v>
+      </c>
+      <c r="E110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D111">
+        <v>16</v>
+      </c>
+      <c r="E111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Controlled causality orientation</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Controlled causality orientation</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D116">
+        <v>4</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D117">
+        <v>15</v>
+      </c>
+      <c r="E117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D118">
+        <v>12</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Entity beliefs</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Extrinsic goals</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D127">
+        <v>6</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Harmonious passion</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D131">
+        <v>10</v>
+      </c>
+      <c r="E131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Incremental beliefs</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Internal pressures</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D133">
+        <v>3</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Intrinsic goals</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D134">
+        <v>6</v>
+      </c>
+      <c r="E134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Invitation from others' to help</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Job security</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Low Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D141">
+        <v>30</v>
+      </c>
+      <c r="E141">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D142">
+        <v>10</v>
+      </c>
+      <c r="E142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D145">
+        <v>33</v>
+      </c>
+      <c r="E145">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D146">
+        <v>10</v>
+      </c>
+      <c r="E146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D148">
+        <v>7</v>
+      </c>
+      <c r="E148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Obsessive passion</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D150">
+        <v>4</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Opportunitiies for professional development</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Others' abilities</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D152">
+        <v>7</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Others' abilities</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+      <c r="E155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D156">
+        <v>5</v>
+      </c>
+      <c r="E156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Others' controlled motivation</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Others' controlled motivation</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Others' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D159">
+        <v>3</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Others' negative emotions</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Others' negative emotions</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D161">
+        <v>10</v>
+      </c>
+      <c r="E161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Others' positive behaviours</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Others' positive emotions</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D163">
+        <v>4</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Performance goals</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Performance goals</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Performance goals</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D167">
+        <v>8</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation motivation</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation motivation</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Positive beliefs about knowledge and learning</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Prior positive related experiences</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D173">
+        <v>6</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D175">
+        <v>12</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D176">
+        <v>7</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D178">
+        <v>3</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D179">
+        <v>6</v>
+      </c>
+      <c r="E179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D181">
+        <v>5</v>
+      </c>
+      <c r="E181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Entity beliefs</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Negative beliefs (religious)</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D185">
+        <v>4</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Negative beliefs about motivation</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Others' positive emotions</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D187">
+        <v>5</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Positive attitudes</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Positive beliefs (religious)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D189">
+        <v>4</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Social competence</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D190">
+        <v>4</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Entity beliefs</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Negative beliefs about motivation</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Others' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
